--- a/datos_softplus_verifbounds_target1_tolper5_mix.xlsx
+++ b/datos_softplus_verifbounds_target1_tolper5_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.006220722198486328</v>
+        <v>0.006084012985229492</v>
       </c>
       <c r="D1" t="n">
-        <v>12.15667946338653</v>
+        <v>13.18862164020538</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>5.016420000000001</v>
+        <v>5.51262</v>
       </c>
       <c r="H1" t="n">
-        <v>6.74811</v>
+        <v>7.43164</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -459,182 +459,6 @@
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.005631780624389649</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.78660774230957</v>
-      </c>
-      <c r="E2" t="n">
-        <v>424.9204895734787</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4.57314</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.97566</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.826010000000001</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.005267286300659179</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.371345520019531</v>
-      </c>
-      <c r="E3" t="n">
-        <v>230.2995048999786</v>
-      </c>
-      <c r="F3" t="n">
-        <v>357.0146946430206</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.37162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.500839999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.788240000000002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.59964</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005797505378723145</v>
-      </c>
-      <c r="D4" t="n">
-        <v>288.5615234375</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.04006</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.47582</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005795073509216308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>391.9429064750672</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1200.001915669441</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.74097</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.34999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.959490000000001</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.007142496109008789</v>
-      </c>
-      <c r="D6" t="n">
-        <v>261.7371846914291</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1200.001767802238</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200.001409602165</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.72171</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.088019999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.008159999999998</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.29687</v>
       </c>
     </row>
   </sheetData>

--- a/datos_softplus_verifbounds_target1_tolper5_mix.xlsx
+++ b/datos_softplus_verifbounds_target1_tolper5_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,182 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.006034660339355469</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.818441009521484</v>
+      </c>
+      <c r="E2" t="n">
+        <v>518.4973287820816</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5.025679999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.669139999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.461590000000001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.005509567260742187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.015128517150879</v>
+      </c>
+      <c r="E3" t="n">
+        <v>299.3193027496338</v>
+      </c>
+      <c r="F3" t="n">
+        <v>361.1618729114533</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.80426</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.1613</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.09454</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.51407</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005855989456176758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>308.0789414167404</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.439220000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.94836</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005977821350097656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>422.3090680599213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1200.001874685287</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.110740000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.79255</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.760920000000001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00556797981262207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>251.4226857423782</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1200.001860308647</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.001381397247</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.08941</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.49126</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.844939999999998</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.84048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
